--- a/Output/List_DPT.xlsx
+++ b/Output/List_DPT.xlsx
@@ -1,103 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\FCI_Fin\food_system_btp\food_system_btp\Output\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C00522-CAD6-4557-89B6-454D254AF385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="wheat" sheetId="2" r:id="rId1"/>
-    <sheet name="rra" sheetId="3" r:id="rId2"/>
+    <sheet name="rice" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="wheat" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="rra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
-  <si>
-    <t>From</t>
-  </si>
-  <si>
-    <t>To</t>
-  </si>
-  <si>
-    <t>Commodity</t>
-  </si>
-  <si>
-    <t>BINA</t>
-  </si>
-  <si>
-    <t>BAP</t>
-  </si>
-  <si>
-    <t>Wheat</t>
-  </si>
-  <si>
-    <t>BPRD</t>
-  </si>
-  <si>
-    <t>CNA+CBFB</t>
-  </si>
-  <si>
-    <t>ADB</t>
-  </si>
-  <si>
-    <t>BBU</t>
-  </si>
-  <si>
-    <t>RRA</t>
-  </si>
-  <si>
-    <t>VSG</t>
-  </si>
-  <si>
-    <t>CHM+BBMN</t>
-  </si>
-  <si>
-    <t>FIH</t>
-  </si>
-  <si>
-    <t>MVKF</t>
-  </si>
-  <si>
-    <t>Rice</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="11"/>
-      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -120,29 +66,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -442,46 +456,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>From</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>From State</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>To</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>To State</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -490,57 +502,87 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>From</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>To</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>From</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>To</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>BGBR</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>VSG</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>RRA</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Output/List_DPT.xlsx
+++ b/Output/List_DPT.xlsx
@@ -9,6 +9,8 @@
     <sheet name="rice" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="wheat" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="rra" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="coarse grain" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="coarse_grain" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -461,7 +463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +496,191 @@
         <is>
           <t>Commodity</t>
         </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>BXC</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Haryana</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>NNA</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Rice</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>BXC</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Haryana</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>NNA</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Rice</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>BHT</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Haryana</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>DMSJ</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Rice</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>BHT</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Haryana</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>NNA</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Rice</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>BHT</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Haryana</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>DMSJ</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Rice</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>BHT</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Haryana</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NNA</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Rice</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -507,7 +694,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,13 +710,88 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
+          <t>From State</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
           <t>To</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>To State</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Commodity</t>
         </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>NMH</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>JPTN</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Andhra Pradesh</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Wheat</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>KSA</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>FCIG</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Andhra Pradesh</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Wheat</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -543,7 +805,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -559,30 +821,220 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
+          <t>From State</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
           <t>To</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>To State</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Commodity</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Values</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BGBR</t>
+          <t>BHT</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>VSG</t>
+          <t>Haryana</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>NNA</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>RRA</t>
         </is>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>From</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>From State</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>To</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>To State</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>RJY</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Haryana</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CTO</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Coarse Grain</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>From</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>From State</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>To</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>To State</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>RJY</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Haryana</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CTO</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Coarse Grain</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Output/List_DPT.xlsx
+++ b/Output/List_DPT.xlsx
@@ -11,6 +11,9 @@
     <sheet name="rra" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="coarse grain" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="coarse_grain" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="frk_rra" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="frk_br" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="frk" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -694,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -732,66 +735,6 @@
         <is>
           <t>Values</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>NMH</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>JPTN</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Andhra Pradesh</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Wheat</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>KSA</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Punjab</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>FCIG</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Andhra Pradesh</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Wheat</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -805,7 +748,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -843,36 +786,6 @@
         <is>
           <t>Values</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>BHT</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Haryana</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>NNA</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Bihar</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>RRA</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -967,7 +880,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1007,34 +920,157 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>RJY</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Haryana</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>CTO</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Bihar</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Coarse Grain</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>From</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>From State</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>To</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>To State</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>From</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>From State</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>To</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>To State</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>From</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>From State</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>To</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>To State</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Output/List_DPT.xlsx
+++ b/Output/List_DPT.xlsx
@@ -14,6 +14,8 @@
     <sheet name="frk_rra" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="frk_br" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="frk" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="frkcgr" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="wcgr" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -691,7 +693,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -742,13 +744,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -786,6 +788,117 @@
         <is>
           <t>Values</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>BAT</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>BMKI</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Wheat</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>From</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>From State</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>To</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>To State</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>JAT</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Jammu &amp; Kashmir</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>VSG</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Goa</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>RRA</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1076,4 +1189,55 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>From</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>From State</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>To</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>To State</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Output/List_DPT.xlsx
+++ b/Output/List_DPT.xlsx
@@ -750,7 +750,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -793,30 +793,150 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BAT</t>
+          <t>FCSM</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>DMSJ</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Wheat</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>FCSM</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>KSNG</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Odisha</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Wheat</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>BGTN</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>Punjab</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>BMKI</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>BBU</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>Bihar</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>Wheat</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>KSA</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>NNA</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Wheat</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>JNL</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>KSNG</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Odisha</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Wheat</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -831,7 +951,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -869,36 +989,6 @@
         <is>
           <t>Values</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>JAT</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Jammu &amp; Kashmir</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>VSG</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Goa</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>RRA</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Output/List_DPT.xlsx
+++ b/Output/List_DPT.xlsx
@@ -750,7 +750,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -788,156 +788,6 @@
         <is>
           <t>Values</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>FCSM</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Rajasthan</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>DMSJ</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Bihar</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Wheat</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>FCSM</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Rajasthan</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>KSNG</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Odisha</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Wheat</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>BGTN</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Punjab</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>BBU</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Bihar</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Wheat</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>KSA</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Punjab</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>NNA</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Bihar</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Wheat</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>JNL</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Punjab</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>KSNG</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Odisha</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Wheat</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -951,7 +801,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -989,6 +839,66 @@
         <is>
           <t>Values</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ARA</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>AGS</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>RRA</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ARA</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>KBJ</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Odisha</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>RRA</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Output/List_DPT.xlsx
+++ b/Output/List_DPT.xlsx
@@ -801,7 +801,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -839,66 +839,6 @@
         <is>
           <t>Values</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ARA</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Bihar</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>AGS</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Rajasthan</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>RRA</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ARA</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Bihar</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>KBJ</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Odisha</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>RRA</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1146,7 +1086,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1184,6 +1124,96 @@
         <is>
           <t>Values</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>DMC</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>NE</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>KMC</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Telangana</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>FRK</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>JFAI</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Odisha</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>JNP</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Odisha</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>FRK</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>KMC</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Telangana</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>FRK</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
